--- a/StructureDefinition-transplantcentercoordinator.xlsx
+++ b/StructureDefinition-transplantcentercoordinator.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="409">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T13:36:13-05:00</t>
+    <t>2022-10-31T18:02:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -252,10 +252,6 @@
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>PRD (as one example)</t>
   </si>
   <si>
@@ -272,70 +268,381 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Practitioner.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Practitioner.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>Practitioner.implicitRules</t>
+    <t>Practitioner.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Practitioner.language</t>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>slicing on meta.security</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>TransplantCenter</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.security.id</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.security.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.security.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.nmdp.org/codesystem/transplant-center</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.security.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.security.code</t>
   </si>
   <si>
     <t xml:space="preserve">code
 </t>
   </si>
   <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.security.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.security.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Practitioner.implicitRules</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Practitioner.language</t>
+  </si>
+  <si>
     <t>Language of the resource content</t>
   </si>
   <si>
@@ -412,28 +719,10 @@
     <t>Practitioner.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -481,10 +770,6 @@
   </si>
   <si>
     <t>Practitioner.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
   </si>
   <si>
     <t>Whether this practitioner's record is in active use</t>
@@ -547,35 +832,7 @@
     <t>Practitioner.name.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Practitioner.name.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Practitioner.name.use</t>
@@ -963,9 +1220,6 @@
   </si>
   <si>
     <t>Coded representation of the qualification.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Specific qualification the practitioner has to provide a service.</t>
@@ -1342,7 +1596,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1351,15 +1605,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.1015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="80.796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1372,22 +1626,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="56.12109375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.28125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="54.6015625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="53.22265625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="54.60546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="53.2265625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="51.21484375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
@@ -1605,16 +1859,16 @@
         <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>73</v>
@@ -1622,7 +1876,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1633,28 +1887,28 @@
         <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1704,13 +1958,13 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>73</v>
@@ -1733,7 +1987,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1744,25 +1998,25 @@
         <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1813,19 +2067,19 @@
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>73</v>
@@ -1842,7 +2096,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1853,29 +2107,27 @@
         <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>100</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>73</v>
@@ -1924,25 +2176,25 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>73</v>
@@ -1953,18 +2205,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -1976,16 +2228,16 @@
         <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2011,49 +2263,49 @@
         <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AF6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>73</v>
@@ -2068,35 +2320,35 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="J7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2146,25 +2398,25 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>73</v>
@@ -2175,18 +2427,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>73</v>
@@ -2195,19 +2447,19 @@
         <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2257,25 +2509,25 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>73</v>
@@ -2286,18 +2538,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>73</v>
@@ -2306,19 +2558,19 @@
         <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2368,25 +2620,25 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>73</v>
@@ -2397,11 +2649,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2414,26 +2666,24 @@
         <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>73</v>
       </c>
@@ -2481,7 +2731,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2493,13 +2743,13 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>73</v>
@@ -2510,7 +2760,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2518,7 +2768,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>75</v>
@@ -2530,21 +2780,21 @@
         <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>73</v>
       </c>
@@ -2568,31 +2818,31 @@
         <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="AC11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2604,66 +2854,64 @@
         <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
-      <c r="A12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P12" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
         <v>73</v>
       </c>
@@ -2683,13 +2931,13 @@
         <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>73</v>
@@ -2707,36 +2955,36 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2744,35 +2992,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>73</v>
       </c>
@@ -2820,28 +3064,28 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>73</v>
@@ -2849,18 +3093,18 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>73</v>
@@ -2872,15 +3116,17 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>73</v>
@@ -2917,37 +3163,37 @@
         <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>73</v>
@@ -2958,18 +3204,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -2978,21 +3224,23 @@
         <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>73</v>
       </c>
@@ -3001,7 +3249,7 @@
         <v>73</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>73</v>
@@ -3028,37 +3276,37 @@
         <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>73</v>
@@ -3069,7 +3317,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3080,32 +3328,30 @@
         <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>73</v>
       </c>
@@ -3129,13 +3375,13 @@
         <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>73</v>
@@ -3153,28 +3399,28 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>73</v>
@@ -3182,7 +3428,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3190,34 +3436,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>73</v>
@@ -3266,25 +3510,25 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>73</v>
@@ -3293,43 +3537,43 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>73</v>
       </c>
@@ -3377,70 +3621,72 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>73</v>
       </c>
@@ -3488,28 +3734,28 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>73</v>
@@ -3517,7 +3763,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3537,18 +3783,20 @@
         <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>73</v>
@@ -3573,13 +3821,13 @@
         <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>73</v>
@@ -3597,7 +3845,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3609,16 +3857,16 @@
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>73</v>
@@ -3626,7 +3874,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3637,27 +3885,29 @@
         <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>73</v>
@@ -3706,25 +3956,25 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>228</v>
+        <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>73</v>
@@ -3735,7 +3985,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3746,7 +3996,7 @@
         <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>73</v>
@@ -3755,21 +4005,21 @@
         <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>73</v>
       </c>
@@ -3793,13 +4043,13 @@
         <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>73</v>
@@ -3817,28 +4067,28 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>73</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>73</v>
@@ -3846,18 +4096,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>73</v>
@@ -3866,23 +4116,21 @@
         <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>73</v>
       </c>
@@ -3930,28 +4178,28 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>246</v>
+        <v>73</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>73</v>
@@ -3959,11 +4207,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3979,23 +4227,21 @@
         <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>73</v>
       </c>
@@ -4043,7 +4289,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -4055,16 +4301,16 @@
         <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>73</v>
@@ -4072,18 +4318,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>73</v>
@@ -4092,21 +4338,21 @@
         <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>73</v>
       </c>
@@ -4130,13 +4376,13 @@
         <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>261</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>73</v>
@@ -4154,28 +4400,28 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>264</v>
+        <v>73</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>73</v>
@@ -4183,40 +4429,42 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="I26" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>73</v>
@@ -4265,28 +4513,28 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>270</v>
+        <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>272</v>
+        <v>73</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>73</v>
@@ -4294,7 +4542,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4314,20 +4562,20 @@
         <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>73</v>
@@ -4376,7 +4624,7 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -4388,24 +4636,24 @@
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4416,7 +4664,7 @@
         <v>74</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>73</v>
@@ -4425,23 +4673,29 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="Q28" t="s" s="2">
         <v>73</v>
       </c>
@@ -4485,36 +4739,36 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>286</v>
+        <v>73</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>73</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4522,31 +4776,35 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="H29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>252</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>73</v>
       </c>
@@ -4594,28 +4852,28 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>73</v>
@@ -4623,18 +4881,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -4646,17 +4904,15 @@
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4705,25 +4961,25 @@
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>73</v>
@@ -4734,11 +4990,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>290</v>
+        <v>101</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4751,26 +5007,24 @@
         <v>73</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>104</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>73</v>
       </c>
@@ -4806,19 +5060,19 @@
         <v>73</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>293</v>
+        <v>109</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -4830,13 +5084,13 @@
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>73</v>
@@ -4847,7 +5101,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4858,29 +5112,31 @@
         <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="N32" t="s" s="2">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>73</v>
@@ -4905,13 +5161,13 @@
         <v>73</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>73</v>
@@ -4929,28 +5185,28 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>73</v>
+        <v>271</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>73</v>
@@ -4958,7 +5214,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4966,31 +5222,35 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>73</v>
       </c>
@@ -5014,13 +5274,13 @@
         <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>303</v>
+        <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>304</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>305</v>
+        <v>73</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>73</v>
@@ -5038,70 +5298,70 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>73</v>
+        <v>280</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>73</v>
+        <v>283</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="H34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>73</v>
       </c>
@@ -5149,67 +5409,69 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>73</v>
+        <v>288</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>73</v>
+        <v>292</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="H35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>314</v>
+        <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>73</v>
@@ -5258,28 +5520,28 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>73</v>
+        <v>297</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>73</v>
@@ -5287,7 +5549,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5307,23 +5569,19 @@
         <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>73</v>
       </c>
@@ -5347,13 +5605,13 @@
         <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>73</v>
@@ -5371,7 +5629,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5383,23 +5641,1797 @@
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="K37" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="K39" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="M39" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM36">
+  <autoFilter ref="A1:AM52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5409,7 +7441,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI35">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-transplantcentercoordinator.xlsx
+++ b/StructureDefinition-transplantcentercoordinator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
